--- a/ai-ml-security/tong_hop_thu_vien_ai_python311.xlsx
+++ b/ai-ml-security/tong_hop_thu_vien_ai_python311.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ai-ml-dl\ai-ml-security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3A6BBA-EFD7-4553-8174-D76526790426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A4DCA2-5F41-4694-8D20-F948DF2D0993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>pytails</t>
   </si>
   <si>
-    <t>pywalker</t>
-  </si>
-  <si>
     <t>Deep Learning</t>
   </si>
   <si>
@@ -401,12 +398,6 @@
     <t>Có thể là thư viện thống kê phân tích</t>
   </si>
   <si>
-    <t>❌ Nhúng Python</t>
-  </si>
-  <si>
-    <t>❌BI</t>
-  </si>
-  <si>
     <t>Statistical Analysis</t>
   </si>
   <si>
@@ -561,6 +552,15 @@
   </si>
   <si>
     <t>Dùng để phát hiện đối tượng trong ảnh</t>
+  </si>
+  <si>
+    <t>pygwalker</t>
+  </si>
+  <si>
+    <t>✅ Nhúng Python</t>
+  </si>
+  <si>
+    <t>✅BI</t>
   </si>
 </sst>
 </file>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,19 +988,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1008,19 +1008,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1028,19 +1028,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1048,19 +1048,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1068,19 +1068,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1088,19 +1088,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,19 +1108,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1128,19 +1128,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1148,19 +1148,19 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1168,19 +1168,19 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1188,19 +1188,19 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1208,19 +1208,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1228,19 +1228,19 @@
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1248,19 +1248,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1268,19 +1268,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1288,19 +1288,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1308,19 +1308,19 @@
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1328,19 +1328,19 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1348,19 +1348,19 @@
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1368,19 +1368,19 @@
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1388,19 +1388,19 @@
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1408,19 +1408,19 @@
         <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1428,19 +1428,19 @@
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1448,19 +1448,19 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1468,19 +1468,19 @@
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1488,19 +1488,19 @@
         <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1508,19 +1508,19 @@
         <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1528,39 +1528,39 @@
         <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B8EAE8-A839-456D-8132-BBD119C7D04A}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,52 +1586,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1639,49 +1639,49 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1689,49 +1689,49 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1739,49 +1739,49 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1789,49 +1789,49 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1839,49 +1839,49 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1889,49 +1889,49 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1939,99 +1939,99 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2039,49 +2039,49 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2089,49 +2089,49 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2139,49 +2139,49 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2189,99 +2189,99 @@
         <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2289,49 +2289,49 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2339,99 +2339,99 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2439,49 +2439,49 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2489,49 +2489,49 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2539,49 +2539,49 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
@@ -2589,49 +2589,49 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -2639,49 +2639,49 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2689,49 +2689,49 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2739,49 +2739,49 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2789,99 +2789,99 @@
         <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2889,49 +2889,49 @@
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -2939,49 +2939,49 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2989,49 +2989,49 @@
         <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -3039,49 +3039,49 @@
         <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
